--- a/template.xlsx
+++ b/template.xlsx
@@ -9,10 +9,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gstrench/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F0399-5CC4-2B4D-97AA-1804DD16D684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD30BF-A4C5-D44F-9BFF-D8C3AB4210A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="p+N10730WuC/R9sj//8YsIQhc+657wsIKAckbDY58IQ4Gr7K9pgXC+wt4WjQJJBaSnehjMbVWX80WDLuQkxUJw==" workbookSaltValue="7wHC3LmfAFVjtf3wEeu6ng==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-8540" windowWidth="40960" windowHeight="22420" activeTab="1" xr2:uid="{120721F8-4A5E-F94D-900E-49E7D505C1D9}"/>
+    <workbookView xWindow="30240" yWindow="-8540" windowWidth="40960" windowHeight="22420" xr2:uid="{120721F8-4A5E-F94D-900E-49E7D505C1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="11" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="45">
   <si>
     <t>Employee</t>
   </si>
@@ -328,6 +328,77 @@
   </si>
   <si>
     <t>Summary Totals</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 Work Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> start with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">use labour code Service or Small Job
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">JOBS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">starts with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number L, 9 or S. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use regular labour codes</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1648,8 +1719,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="129" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:N9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="129" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2522,7 +2593,7 @@
       <c r="Z15" s="67"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="68" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AC15" s="68"/>
       <c r="AD15" s="68"/>
@@ -3231,7 +3302,7 @@
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jyFyUGG6RoH0kXwISfdnRVUX6/6bMfBhJJRlyU1IN7q1idzrElAIOrEMLvGpsQ4RWTpJe2dS8IZOx3pkIxp0NA==" saltValue="L8W+Er1gUh1XX3YgmM/RtQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RZobprU1sN+cpn8q5yB/vGMdubM5iJR3xYtW1IUWQM+BE7iQZ7Qou05u7HZF4ZYUyWwYfzKoXEX4jY4OnFbzNA==" saltValue="SyrbILjTMtUYjDSIQkRcKQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="291">
     <mergeCell ref="AG5:AH5"/>
@@ -3540,7 +3611,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="129" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="129" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/template.xlsx
+++ b/template.xlsx
@@ -6,13 +6,13 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gstrench/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gstrench/Desktop/Timecard/Excel Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD30BF-A4C5-D44F-9BFF-D8C3AB4210A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{927857C3-40EA-CA43-8935-CD6B81482B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="p+N10730WuC/R9sj//8YsIQhc+657wsIKAckbDY58IQ4Gr7K9pgXC+wt4WjQJJBaSnehjMbVWX80WDLuQkxUJw==" workbookSaltValue="7wHC3LmfAFVjtf3wEeu6ng==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-8540" windowWidth="40960" windowHeight="22420" xr2:uid="{120721F8-4A5E-F94D-900E-49E7D505C1D9}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17780" activeTab="1" xr2:uid="{120721F8-4A5E-F94D-900E-49E7D505C1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="11" r:id="rId1"/>
@@ -37,15 +37,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version warnBelowVersion="2" setVersion="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="44">
   <si>
     <t>Employee</t>
   </si>
@@ -329,77 +326,6 @@
   <si>
     <t>Summary Totals</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 Work Orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> start with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Number 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">use labour code Service or Small Job
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">JOBS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">starts with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Number L, 9 or S. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Use regular labour codes</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -890,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -956,8 +882,18 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,6 +966,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,6 +991,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,7 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1110,75 +1062,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,29 +1129,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1719,8 +1636,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="129" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="129" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1735,13 +1652,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="J1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -1755,45 +1672,45 @@
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="J2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="J2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
       <c r="AI2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="45">
+      <c r="AJ2" s="48">
         <v>1</v>
       </c>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
     </row>
     <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1808,222 +1725,222 @@
       <c r="AI3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="45">
+      <c r="AJ3" s="48">
         <v>2025</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
     </row>
     <row r="4" spans="1:41" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="36">
         <v>45781</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="W4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="X4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="35" t="s">
+      <c r="AB4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AD4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="35" t="s">
+      <c r="AF4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="34" t="s">
+      <c r="AG4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AH4" s="35" t="s">
+      <c r="AH4" s="38" t="s">
         <v>29</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="42" t="s">
+      <c r="AJ4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="44"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="47"/>
     </row>
     <row r="5" spans="1:41" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="26">
         <f>B4</f>
         <v>45781</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="5" t="str" cm="1">
-        <f t="array" ref="AI5">IFERROR(SUM(_xlfn._xlws.FILTER(C5:AH5,ISNUMBER(C5:AH5))),"")</f>
-        <v/>
-      </c>
-      <c r="AJ5" s="50" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="5">
+        <f t="shared" ref="AI5:AI11" si="0">SUMIFS(C5:AH5,C$4:AH$4,"&lt;&gt;Labour Codes:")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="52"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="57"/>
     </row>
     <row r="6" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25">
-        <f t="shared" ref="B6:B11" si="0">B5+1</f>
+      <c r="B6" s="23">
+        <f t="shared" ref="B6:B11" si="1">B5+1</f>
         <v>45782</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="5" t="str" cm="1">
-        <f t="array" ref="AI6">IFERROR(SUM(_xlfn._xlws.FILTER(C6:AH6,ISNUMBER(C6:AH6))),"")</f>
-        <v/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AJ6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AK6" s="53" t="str" cm="1">
+      <c r="AK6" s="58" t="str" cm="1">
         <f t="array" ref="AK6">_xlfn.LET(
   _xlpm.f, _xlfn._xlws.FILTER(C5:AH11,(C4:AH4&lt;&gt;"VP")*ISNUMBER(C12:AH12),0),
   _xlpm.s, SUM(_xlpm.f),
@@ -2031,366 +1948,364 @@
 )</f>
         <v/>
       </c>
-      <c r="AL6" s="54"/>
+      <c r="AL6" s="59"/>
     </row>
     <row r="7" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
+        <f t="shared" si="1"/>
+        <v>45783</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="5">
         <f t="shared" si="0"/>
-        <v>45783</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="5" t="str" cm="1">
-        <f t="array" ref="AI7">IFERROR(SUM(_xlfn._xlws.FILTER(C7:AH7,ISNUMBER(C7:AH7))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AJ7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AK7" s="53">
+      <c r="AK7" s="58">
         <f>SUM(W16:X22)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="54"/>
+      <c r="AL7" s="59"/>
     </row>
     <row r="8" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
+        <f t="shared" si="1"/>
+        <v>45784</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="5">
         <f t="shared" si="0"/>
-        <v>45784</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="5" t="str" cm="1">
-        <f t="array" ref="AI8">IFERROR(SUM(_xlfn._xlws.FILTER(C8:AH8,ISNUMBER(C8:AH8))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AJ8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AK8" s="53">
+      <c r="AK8" s="58">
         <f>SUM(Y16:Z22)</f>
         <v>0</v>
       </c>
-      <c r="AL8" s="54"/>
+      <c r="AL8" s="59"/>
     </row>
     <row r="9" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
+        <f t="shared" si="1"/>
+        <v>45785</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="5">
         <f t="shared" si="0"/>
-        <v>45785</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="5" t="str" cm="1">
-        <f t="array" ref="AI9">IFERROR(SUM(_xlfn._xlws.FILTER(C9:AH9,ISNUMBER(C9:AH9))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AJ9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AK9" s="36" t="str" cm="1">
+      <c r="AK9" s="39" t="str" cm="1">
         <f t="array" ref="AK9">IF(SUMPRODUCT((C4:AH4="VP")*ISNUMBER(C12:AH12)*C5:AH11)=0,"",
    SUMPRODUCT((C4:AH4="VP")*ISNUMBER(C12:AH12)*C5:AH11))</f>
         <v/>
       </c>
-      <c r="AL9" s="37"/>
+      <c r="AL9" s="40"/>
     </row>
     <row r="10" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
+        <f t="shared" si="1"/>
+        <v>45786</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="5">
         <f t="shared" si="0"/>
-        <v>45786</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="5" t="str" cm="1">
-        <f t="array" ref="AI10">IFERROR(SUM(_xlfn._xlws.FILTER(C10:AH10,ISNUMBER(C10:AH10))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AJ10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AK10" s="53">
+      <c r="AK10" s="58">
         <f>AI13</f>
         <v>0</v>
       </c>
-      <c r="AL10" s="55"/>
+      <c r="AL10" s="60"/>
     </row>
     <row r="11" spans="1:41" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
+        <f t="shared" si="1"/>
+        <v>45787</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="25">
         <f t="shared" si="0"/>
-        <v>45787</v>
-      </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="23" t="str" cm="1">
-        <f t="array" ref="AI11">IFERROR(SUM(_xlfn._xlws.FILTER(C11:AH11,ISNUMBER(C11:AH11))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AJ11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AK11" s="56" t="str" cm="1">
+      <c r="AK11" s="63" t="str" cm="1">
         <f t="array" ref="AK11">_xlfn.LET(
-    _xlpm.codes, C4:AH4,
-    _xlpm.hours, C5:AH11,
-    _xlpm.statHours, SUMPRODUCT((ISNUMBER(SEARCH("H",_xlpm.codes))+ISNUMBER(SEARCH("STAT",_xlpm.codes))&gt;0)*_xlpm.hours),
-    IF(_xlpm.statHours=0,"",_xlpm.statHours)
+    _xlpm.vals, IFERROR(_xlfn._xlws.FILTER(C5:AH11, C4:AH4="H"), 0),
+    IF(SUM(_xlpm.vals)=0, "", SUM(_xlpm.vals))
 )</f>
         <v/>
       </c>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="39"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="42"/>
     </row>
     <row r="12" spans="1:41" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59" t="str">
+      <c r="B12" s="65"/>
+      <c r="C12" s="66" t="str">
         <f>IF(OR(LEFT(C4,1)="N",,LEFT(C4,1)="L",C4="Service Night"),"", SUM(C5:D11))</f>
         <v/>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="59" t="str">
+      <c r="D12" s="67"/>
+      <c r="E12" s="66" t="str">
         <f>IF(OR(LEFT(E4,1)="N",,LEFT(E4,1)="L",E4="Service Night"),"", SUM(E5:F11))</f>
         <v/>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="59" t="str">
-        <f t="shared" ref="G12" si="1">IF(OR(LEFT(G4,1)="N",,LEFT(G4,1)="L",G4="Service Night"),"", SUM(G5:H11))</f>
-        <v/>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="59" t="str">
-        <f t="shared" ref="I12" si="2">IF(OR(LEFT(I4,1)="N",,LEFT(I4,1)="L",I4="Service Night"),"", SUM(I5:J11))</f>
-        <v/>
-      </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="59" t="str">
-        <f t="shared" ref="K12" si="3">IF(OR(LEFT(K4,1)="N",,LEFT(K4,1)="L",K4="Service Night"),"", SUM(K5:L11))</f>
-        <v/>
-      </c>
-      <c r="L12" s="60"/>
-      <c r="M12" s="59" t="str">
-        <f t="shared" ref="M12" si="4">IF(OR(LEFT(M4,1)="N",,LEFT(M4,1)="L",M4="Service Night"),"", SUM(M5:N11))</f>
-        <v/>
-      </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="59" t="str">
-        <f t="shared" ref="O12" si="5">IF(OR(LEFT(O4,1)="N",,LEFT(O4,1)="L",O4="Service Night"),"", SUM(O5:P11))</f>
-        <v/>
-      </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="59" t="str">
-        <f t="shared" ref="Q12" si="6">IF(OR(LEFT(Q4,1)="N",,LEFT(Q4,1)="L",Q4="Service Night"),"", SUM(Q5:R11))</f>
-        <v/>
-      </c>
-      <c r="R12" s="60"/>
-      <c r="S12" s="59" t="str">
-        <f t="shared" ref="S12" si="7">IF(OR(LEFT(S4,1)="N",,LEFT(S4,1)="L",S4="Service Night"),"", SUM(S5:T11))</f>
-        <v/>
-      </c>
-      <c r="T12" s="60"/>
-      <c r="U12" s="59" t="str">
-        <f t="shared" ref="U12" si="8">IF(OR(LEFT(U4,1)="N",,LEFT(U4,1)="L",U4="Service Night"),"", SUM(U5:V11))</f>
-        <v/>
-      </c>
-      <c r="V12" s="60"/>
-      <c r="W12" s="59" t="str">
-        <f t="shared" ref="W12" si="9">IF(OR(LEFT(W4,1)="N",,LEFT(W4,1)="L",W4="Service Night"),"", SUM(W5:X11))</f>
-        <v/>
-      </c>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="59" t="str">
-        <f t="shared" ref="Y12" si="10">IF(OR(LEFT(Y4,1)="N",,LEFT(Y4,1)="L",Y4="Service Night"),"", SUM(Y5:Z11))</f>
-        <v/>
-      </c>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="59" t="str">
-        <f t="shared" ref="AA12" si="11">IF(OR(LEFT(AA4,1)="N",,LEFT(AA4,1)="L",AA4="Service Night"),"", SUM(AA5:AB11))</f>
-        <v/>
-      </c>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="59" t="str">
-        <f t="shared" ref="AC12" si="12">IF(OR(LEFT(AC4,1)="N",,LEFT(AC4,1)="L",AC4="Service Night"),"", SUM(AC5:AD11))</f>
-        <v/>
-      </c>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="59" t="str">
-        <f t="shared" ref="AE12" si="13">IF(OR(LEFT(AE4,1)="N",,LEFT(AE4,1)="L",AE4="Service Night"),"", SUM(AE5:AF11))</f>
-        <v/>
-      </c>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="59" t="str">
-        <f t="shared" ref="AG12" si="14">IF(OR(LEFT(AG4,1)="N",,LEFT(AG4,1)="L",AG4="Service Night"),"", SUM(AG5:AH11))</f>
-        <v/>
-      </c>
-      <c r="AH12" s="60"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66" t="str">
+        <f t="shared" ref="G12" si="2">IF(OR(LEFT(G4,1)="N",,LEFT(G4,1)="L",G4="Service Night"),"", SUM(G5:H11))</f>
+        <v/>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="66" t="str">
+        <f t="shared" ref="I12" si="3">IF(OR(LEFT(I4,1)="N",,LEFT(I4,1)="L",I4="Service Night"),"", SUM(I5:J11))</f>
+        <v/>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="66" t="str">
+        <f t="shared" ref="K12" si="4">IF(OR(LEFT(K4,1)="N",,LEFT(K4,1)="L",K4="Service Night"),"", SUM(K5:L11))</f>
+        <v/>
+      </c>
+      <c r="L12" s="67"/>
+      <c r="M12" s="66" t="str">
+        <f t="shared" ref="M12" si="5">IF(OR(LEFT(M4,1)="N",,LEFT(M4,1)="L",M4="Service Night"),"", SUM(M5:N11))</f>
+        <v/>
+      </c>
+      <c r="N12" s="67"/>
+      <c r="O12" s="66" t="str">
+        <f t="shared" ref="O12" si="6">IF(OR(LEFT(O4,1)="N",,LEFT(O4,1)="L",O4="Service Night"),"", SUM(O5:P11))</f>
+        <v/>
+      </c>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="66" t="str">
+        <f t="shared" ref="Q12" si="7">IF(OR(LEFT(Q4,1)="N",,LEFT(Q4,1)="L",Q4="Service Night"),"", SUM(Q5:R11))</f>
+        <v/>
+      </c>
+      <c r="R12" s="67"/>
+      <c r="S12" s="66" t="str">
+        <f t="shared" ref="S12" si="8">IF(OR(LEFT(S4,1)="N",,LEFT(S4,1)="L",S4="Service Night"),"", SUM(S5:T11))</f>
+        <v/>
+      </c>
+      <c r="T12" s="67"/>
+      <c r="U12" s="66" t="str">
+        <f t="shared" ref="U12" si="9">IF(OR(LEFT(U4,1)="N",,LEFT(U4,1)="L",U4="Service Night"),"", SUM(U5:V11))</f>
+        <v/>
+      </c>
+      <c r="V12" s="67"/>
+      <c r="W12" s="66" t="str">
+        <f t="shared" ref="W12" si="10">IF(OR(LEFT(W4,1)="N",,LEFT(W4,1)="L",W4="Service Night"),"", SUM(W5:X11))</f>
+        <v/>
+      </c>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="66" t="str">
+        <f t="shared" ref="Y12" si="11">IF(OR(LEFT(Y4,1)="N",,LEFT(Y4,1)="L",Y4="Service Night"),"", SUM(Y5:Z11))</f>
+        <v/>
+      </c>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="66" t="str">
+        <f t="shared" ref="AA12" si="12">IF(OR(LEFT(AA4,1)="N",,LEFT(AA4,1)="L",AA4="Service Night"),"", SUM(AA5:AB11))</f>
+        <v/>
+      </c>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="66" t="str">
+        <f t="shared" ref="AC12" si="13">IF(OR(LEFT(AC4,1)="N",,LEFT(AC4,1)="L",AC4="Service Night"),"", SUM(AC5:AD11))</f>
+        <v/>
+      </c>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="66" t="str">
+        <f t="shared" ref="AE12" si="14">IF(OR(LEFT(AE4,1)="N",,LEFT(AE4,1)="L",AE4="Service Night"),"", SUM(AE5:AF11))</f>
+        <v/>
+      </c>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="66" t="str">
+        <f t="shared" ref="AG12" si="15">IF(OR(LEFT(AG4,1)="N",,LEFT(AG4,1)="L",AG4="Service Night"),"", SUM(AG5:AH11))</f>
+        <v/>
+      </c>
+      <c r="AH12" s="67"/>
       <c r="AI12" s="15" t="str" cm="1">
         <f t="array" ref="AI12">IFERROR(
   SUM( _xlfn._xlws.FILTER( C5:AH11, (C4:AH4&lt;&gt;"VP") * ISNUMBER(C12:AH12) ) ),
@@ -2401,99 +2316,99 @@
       <c r="AJ12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK12" s="61" t="str">
+      <c r="AK12" s="68" t="str">
         <f>IF(OR(C15="On Call",E15="On Call",G15="On Call",I15="On Call",K15="On Call",M15="On Call",O15="On Call",Q15="On Call",S15="On Call",U15="On Call"), 300, IF(0=0,"",0))</f>
         <v/>
       </c>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="40"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="43"/>
     </row>
     <row r="13" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64" t="str">
+      <c r="B13" s="70"/>
+      <c r="C13" s="71" t="str">
         <f>IF(OR(LEFT(C4,1)="N",C4="Service Night"), SUM(C5:D11),"")</f>
         <v/>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="64" t="str">
+      <c r="D13" s="72"/>
+      <c r="E13" s="71" t="str">
         <f>IF(OR(LEFT(E4,1)="N",E4="Service Night"), SUM(E5:F11),"")</f>
         <v/>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="64" t="str">
-        <f t="shared" ref="G13" si="15">IF(OR(LEFT(G4,1)="N",G4="Service Night"), SUM(G5:H11),"")</f>
-        <v/>
-      </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="64" t="str">
-        <f t="shared" ref="I13" si="16">IF(OR(LEFT(I4,1)="N",I4="Service Night"), SUM(I5:J11),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64" t="str">
-        <f t="shared" ref="K13" si="17">IF(OR(LEFT(K4,1)="N",K4="Service Night"), SUM(K5:L11),"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64" t="str">
-        <f t="shared" ref="M13" si="18">IF(OR(LEFT(M4,1)="N",M4="Service Night"), SUM(M5:N11),"")</f>
-        <v/>
-      </c>
-      <c r="N13" s="65"/>
-      <c r="O13" s="64" t="str">
-        <f t="shared" ref="O13" si="19">IF(OR(LEFT(O4,1)="N",O4="Service Night"), SUM(O5:P11),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="64" t="str">
-        <f t="shared" ref="Q13" si="20">IF(OR(LEFT(Q4,1)="N",Q4="Service Night"), SUM(Q5:R11),"")</f>
-        <v/>
-      </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64" t="str">
-        <f t="shared" ref="S13" si="21">IF(OR(LEFT(S4,1)="N",S4="Service Night"), SUM(S5:T11),"")</f>
-        <v/>
-      </c>
-      <c r="T13" s="65"/>
-      <c r="U13" s="64" t="str">
-        <f t="shared" ref="U13" si="22">IF(OR(LEFT(U4,1)="N",U4="Service Night"), SUM(U5:V11),"")</f>
-        <v/>
-      </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="64" t="str">
-        <f t="shared" ref="W13" si="23">IF(OR(LEFT(W4,1)="N",W4="Service Night"), SUM(W5:X11),"")</f>
-        <v/>
-      </c>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="64" t="str">
-        <f t="shared" ref="Y13" si="24">IF(OR(LEFT(Y4,1)="N",Y4="Service Night"), SUM(Y5:Z11),"")</f>
-        <v/>
-      </c>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="64" t="str">
-        <f t="shared" ref="AA13" si="25">IF(OR(LEFT(AA4,1)="N",AA4="Service Night"), SUM(AA5:AB11),"")</f>
-        <v/>
-      </c>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="64" t="str">
-        <f t="shared" ref="AC13" si="26">IF(OR(LEFT(AC4,1)="N",AC4="Service Night"), SUM(AC5:AD11),"")</f>
-        <v/>
-      </c>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="64" t="str">
-        <f t="shared" ref="AE13" si="27">IF(OR(LEFT(AE4,1)="N",AE4="Service Night"), SUM(AE5:AF11),"")</f>
-        <v/>
-      </c>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="64" t="str">
-        <f t="shared" ref="AG13" si="28">IF(OR(LEFT(AG4,1)="N",AG4="Service Night"), SUM(AG5:AH11),"")</f>
-        <v/>
-      </c>
-      <c r="AH13" s="65"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="71" t="str">
+        <f t="shared" ref="G13" si="16">IF(OR(LEFT(G4,1)="N",G4="Service Night"), SUM(G5:H11),"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="72"/>
+      <c r="I13" s="71" t="str">
+        <f t="shared" ref="I13" si="17">IF(OR(LEFT(I4,1)="N",I4="Service Night"), SUM(I5:J11),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="72"/>
+      <c r="K13" s="71" t="str">
+        <f t="shared" ref="K13" si="18">IF(OR(LEFT(K4,1)="N",K4="Service Night"), SUM(K5:L11),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="71" t="str">
+        <f t="shared" ref="M13" si="19">IF(OR(LEFT(M4,1)="N",M4="Service Night"), SUM(M5:N11),"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="71" t="str">
+        <f t="shared" ref="O13" si="20">IF(OR(LEFT(O4,1)="N",O4="Service Night"), SUM(O5:P11),"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="71" t="str">
+        <f t="shared" ref="Q13" si="21">IF(OR(LEFT(Q4,1)="N",Q4="Service Night"), SUM(Q5:R11),"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="72"/>
+      <c r="S13" s="71" t="str">
+        <f t="shared" ref="S13" si="22">IF(OR(LEFT(S4,1)="N",S4="Service Night"), SUM(S5:T11),"")</f>
+        <v/>
+      </c>
+      <c r="T13" s="72"/>
+      <c r="U13" s="71" t="str">
+        <f t="shared" ref="U13" si="23">IF(OR(LEFT(U4,1)="N",U4="Service Night"), SUM(U5:V11),"")</f>
+        <v/>
+      </c>
+      <c r="V13" s="72"/>
+      <c r="W13" s="71" t="str">
+        <f t="shared" ref="W13" si="24">IF(OR(LEFT(W4,1)="N",W4="Service Night"), SUM(W5:X11),"")</f>
+        <v/>
+      </c>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="71" t="str">
+        <f t="shared" ref="Y13" si="25">IF(OR(LEFT(Y4,1)="N",Y4="Service Night"), SUM(Y5:Z11),"")</f>
+        <v/>
+      </c>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="71" t="str">
+        <f t="shared" ref="AA13" si="26">IF(OR(LEFT(AA4,1)="N",AA4="Service Night"), SUM(AA5:AB11),"")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="71" t="str">
+        <f t="shared" ref="AC13" si="27">IF(OR(LEFT(AC4,1)="N",AC4="Service Night"), SUM(AC5:AD11),"")</f>
+        <v/>
+      </c>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="71" t="str">
+        <f t="shared" ref="AE13" si="28">IF(OR(LEFT(AE4,1)="N",AE4="Service Night"), SUM(AE5:AF11),"")</f>
+        <v/>
+      </c>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="71" t="str">
+        <f t="shared" ref="AG13" si="29">IF(OR(LEFT(AG4,1)="N",AG4="Service Night"), SUM(AG5:AH11),"")</f>
+        <v/>
+      </c>
+      <c r="AH13" s="72"/>
       <c r="AI13" s="16">
         <f>SUM(C13:AH13)</f>
         <v>0</v>
@@ -2501,12 +2416,12 @@
       <c r="AJ13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AK13" s="61" t="str" cm="1">
+      <c r="AK13" s="68" t="str" cm="1">
         <f t="array" ref="AK13">IF(COUNT(_xlfn._xlws.FILTER(C15:V22,C15:V15="On Call"))*50=0,"",COUNT(_xlfn._xlws.FILTER(C15:V22,C15:V15="On Call"))*50)</f>
         <v/>
       </c>
-      <c r="AL13" s="62"/>
-      <c r="AO13" s="26"/>
+      <c r="AL13" s="69"/>
+      <c r="AO13" s="29"/>
     </row>
     <row r="14" spans="1:41" s="20" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
@@ -2519,140 +2434,140 @@
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="27">
         <f>B4</f>
         <v>45781</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="35" t="s">
+      <c r="P15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="34" t="s">
+      <c r="Q15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="35" t="s">
+      <c r="R15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="S15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U15" s="34" t="s">
+      <c r="U15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="35" t="s">
+      <c r="V15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W15" s="66" t="s">
+      <c r="W15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="66" t="s">
+      <c r="X15" s="74"/>
+      <c r="Y15" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Z15" s="67"/>
+      <c r="Z15" s="74"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
+      <c r="AB15" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
     </row>
     <row r="16" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="22">
-        <f t="shared" ref="B16:B22" si="29">B5</f>
+        <f t="shared" ref="B16:B22" si="30">B5</f>
         <v>45781</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="85">
-        <f t="shared" ref="W16:W17" si="30">IF(SUM(AI5)=0, MIN(SUMIFS(C16:V16, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 12), MIN(SUMIFS(C16:V16, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 4))</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="72">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="77">
+        <f>IF(SUM(AI5)=0, MIN(SUMIFS(C16:V16, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 12), MIN(SUMIFS(C16:V16, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 4))</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="79">
         <f>SUMIFS(C16:V16,C$15:V$15,"&lt;&gt;Labour Codes:")-W16</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="73"/>
-      <c r="AB16" s="74" t="s">
+      <c r="Z16" s="80"/>
+      <c r="AB16" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="81"/>
       <c r="AN16" s="2"/>
     </row>
     <row r="17" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2660,639 +2575,639 @@
         <v>9</v>
       </c>
       <c r="B17" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>45782</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="85">
-        <f t="shared" ref="W17:W22" si="31">IF(SUM(AI6)=0, MIN(SUMIFS(C17:V17, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 12), MIN(SUMIFS(C17:V17, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 4))</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="72">
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="77">
+        <f t="shared" ref="W17:W19" si="31">IF(SUM(AI6)=0, MIN(SUMIFS(C17:V17, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 12), MIN(SUMIFS(C17:V17, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 4))</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="79">
         <f t="shared" ref="Y17:Y22" si="32">SUMIFS(C17:V17,C$15:V$15,"&lt;&gt;Labour Codes:")-W17</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="73"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
+      <c r="Z17" s="80"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
     </row>
     <row r="18" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>45783</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="85">
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="77">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="72">
+      <c r="X18" s="78"/>
+      <c r="Y18" s="79">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="73"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
+      <c r="Z18" s="80"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="82"/>
     </row>
     <row r="19" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>45784</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="85">
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="77">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="72">
+      <c r="X19" s="78"/>
+      <c r="Y19" s="79">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="73"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
+      <c r="Z19" s="80"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
       <c r="AJ19" s="17"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
     </row>
     <row r="20" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>45785</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="85">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="72">
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="77">
+        <f t="shared" ref="W20:W22" si="33">IF(SUM(AI9)=0, MIN(SUMIFS(C20:V20, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 12), MIN(SUMIFS(C20:V20, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 4))</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="79">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="73"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="74"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
+      <c r="Z20" s="80"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
     </row>
     <row r="21" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>45786</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="85">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="72">
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="77">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="79">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="73"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
+      <c r="Z21" s="80"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49"/>
     </row>
     <row r="22" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>45787</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="85">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="72">
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="77">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="73"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
-      <c r="AK22" s="46"/>
-      <c r="AL22" s="46"/>
+      <c r="Z22" s="80"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
     </row>
     <row r="23" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="83" t="str">
+      <c r="B23" s="92"/>
+      <c r="C23" s="86" t="str">
         <f>IF(AND(LEFT(C15,1) &lt;&gt; "N",LEFT(C15,3) &lt;&gt; "Lab"),SUM(C16:D22),"")</f>
         <v/>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="83" t="str">
+      <c r="D23" s="87"/>
+      <c r="E23" s="86" t="str">
         <f>IF(AND(LEFT(E15,1) &lt;&gt; "N",LEFT(E15,3) &lt;&gt; "Lab"),SUM(E16:F22),"")</f>
         <v/>
       </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="83" t="str">
+      <c r="F23" s="87"/>
+      <c r="G23" s="86" t="str">
         <f>IF(AND(LEFT(G15,1) &lt;&gt; "N",LEFT(G15,3) &lt;&gt; "Lab"),SUM(G16:H22),"")</f>
         <v/>
       </c>
-      <c r="H23" s="84"/>
-      <c r="I23" s="83" t="str">
+      <c r="H23" s="87"/>
+      <c r="I23" s="86" t="str">
         <f>IF(AND(LEFT(I15,1) &lt;&gt; "N",LEFT(I15,3) &lt;&gt; "Lab"),SUM(I16:J22),"")</f>
         <v/>
       </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="83" t="str">
+      <c r="J23" s="87"/>
+      <c r="K23" s="86" t="str">
         <f>IF(AND(LEFT(K15,1) &lt;&gt; "N",LEFT(K15,3) &lt;&gt; "Lab"),SUM(K16:L22),"")</f>
         <v/>
       </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="83" t="str">
+      <c r="L23" s="87"/>
+      <c r="M23" s="86" t="str">
         <f>IF(AND(LEFT(M15,1) &lt;&gt; "N",LEFT(M15,3) &lt;&gt; "Lab"),SUM(M16:N22),"")</f>
         <v/>
       </c>
-      <c r="N23" s="84"/>
-      <c r="O23" s="83" t="str">
+      <c r="N23" s="87"/>
+      <c r="O23" s="86" t="str">
         <f>IF(AND(LEFT(O15,1) &lt;&gt; "N",LEFT(O15,3) &lt;&gt; "Lab"),SUM(O16:P22),"")</f>
         <v/>
       </c>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="83" t="str">
+      <c r="P23" s="87"/>
+      <c r="Q23" s="86" t="str">
         <f>IF(AND(LEFT(Q15,1) &lt;&gt; "N",LEFT(Q15,3) &lt;&gt; "Lab"),SUM(Q16:R22),"")</f>
         <v/>
       </c>
-      <c r="R23" s="84"/>
-      <c r="S23" s="83" t="str">
+      <c r="R23" s="87"/>
+      <c r="S23" s="86" t="str">
         <f>IF(AND(LEFT(S15,1) &lt;&gt; "N",LEFT(S15,3) &lt;&gt; "Lab"),SUM(S16:T22),"")</f>
         <v/>
       </c>
-      <c r="T23" s="84"/>
-      <c r="U23" s="83" t="str">
+      <c r="T23" s="87"/>
+      <c r="U23" s="86" t="str">
         <f>IF(AND(LEFT(U15,1) &lt;&gt; "N",LEFT(U15,3) &lt;&gt; "Lab"),SUM(U16:V22),"")</f>
         <v/>
       </c>
-      <c r="V23" s="84"/>
-      <c r="W23" s="81">
+      <c r="V23" s="87"/>
+      <c r="W23" s="84">
         <f>SUM(W16:X22)</f>
         <v>0</v>
       </c>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="81">
+      <c r="X23" s="85"/>
+      <c r="Y23" s="84">
         <f>SUM(Y16:Z22)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="82"/>
+      <c r="Z23" s="85"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81"/>
+      <c r="AH23" s="81"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
     </row>
     <row r="24" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="88"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="91"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
       <c r="AJ24" s="7"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="46"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
     </row>
     <row r="25" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="81"/>
+      <c r="AH25" s="81"/>
       <c r="AJ25" s="20"/>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+      <c r="AH26" s="81"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="74"/>
-      <c r="AH27" s="74"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="81"/>
     </row>
     <row r="28" spans="1:38" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80" t="s">
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="80"/>
-      <c r="AE28" s="80"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="80"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="80"/>
-      <c r="AL28" s="80"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="83"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="83"/>
+      <c r="AJ28" s="83"/>
+      <c r="AK28" s="83"/>
+      <c r="AL28" s="83"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="80"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="80"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="80"/>
-      <c r="Z30" s="80"/>
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="28"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="31"/>
     </row>
     <row r="31" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
@@ -3302,130 +3217,10 @@
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RZobprU1sN+cpn8q5yB/vGMdubM5iJR3xYtW1IUWQM+BE7iQZ7Qou05u7HZF4ZYUyWwYfzKoXEX4jY4OnFbzNA==" saltValue="SyrbILjTMtUYjDSIQkRcKQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="291">
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
     <mergeCell ref="AB28:AL29"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
@@ -3440,6 +3235,15 @@
     <mergeCell ref="A26:AA26"/>
     <mergeCell ref="A27:AA27"/>
     <mergeCell ref="A28:AA28"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="A30:AA30"/>
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="S23:T23"/>
@@ -3482,7 +3286,6 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="S17:T17"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:T20"/>
@@ -3506,7 +3309,6 @@
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="W18:X18"/>
     <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
@@ -3515,7 +3317,7 @@
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="S17:T17"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="AB15:AL15"/>
@@ -3539,13 +3341,16 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AK13:AL13"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
@@ -3555,14 +3360,17 @@
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
@@ -3570,8 +3378,115 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AM11:AN11"/>
     <mergeCell ref="AM12:AN12"/>
@@ -3588,14 +3503,14 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.12" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3611,8 +3526,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="129" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="129" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3627,13 +3542,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="J1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -3647,49 +3562,49 @@
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="J2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="92" t="str">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="J2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="95" t="str">
         <f>IF('Week 1'!M2="", "", 'Week 1'!M2)</f>
         <v/>
       </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
       <c r="AI2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="93">
+      <c r="AJ2" s="96">
         <f>'Week 1'!AJ2</f>
         <v>1</v>
       </c>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
     </row>
     <row r="3" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3704,224 +3619,224 @@
       <c r="AI3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="93">
+      <c r="AJ3" s="96">
         <f>'Week 1'!AJ3</f>
         <v>2025</v>
       </c>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
     </row>
     <row r="4" spans="1:40" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="105">
+      <c r="B4" s="28">
         <f>('Week 1'!B11)+1</f>
         <v>45788</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="W4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="X4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="35" t="s">
+      <c r="AB4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AD4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="35" t="s">
+      <c r="AF4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="34" t="s">
+      <c r="AG4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AH4" s="35" t="s">
+      <c r="AH4" s="38" t="s">
         <v>29</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="42" t="s">
+      <c r="AJ4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="44"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="47"/>
     </row>
     <row r="5" spans="1:40" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="24">
         <f>B4</f>
         <v>45788</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="75"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="76"/>
       <c r="X5" s="76"/>
-      <c r="Y5" s="75"/>
+      <c r="Y5" s="76"/>
       <c r="Z5" s="76"/>
-      <c r="AA5" s="75"/>
+      <c r="AA5" s="76"/>
       <c r="AB5" s="76"/>
-      <c r="AC5" s="75"/>
+      <c r="AC5" s="76"/>
       <c r="AD5" s="76"/>
-      <c r="AE5" s="75"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="76"/>
-      <c r="AG5" s="75"/>
+      <c r="AG5" s="76"/>
       <c r="AH5" s="76"/>
-      <c r="AI5" s="5" t="str" cm="1">
-        <f t="array" ref="AI5">IFERROR(SUM(_xlfn._xlws.FILTER(C5:AH5,ISNUMBER(C5:AH5))),"")</f>
-        <v/>
-      </c>
-      <c r="AJ5" s="50" t="s">
+      <c r="AI5" s="5">
+        <f>SUMIFS(C5:AH5,C$4:AH$4,"&lt;&gt;Labour Codes:")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="52"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="57"/>
     </row>
     <row r="6" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <f t="shared" ref="B6:B11" si="0">B5+1</f>
         <v>45789</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="75"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="76"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="75"/>
+      <c r="U6" s="76"/>
       <c r="V6" s="76"/>
-      <c r="W6" s="75"/>
+      <c r="W6" s="76"/>
       <c r="X6" s="76"/>
-      <c r="Y6" s="75"/>
+      <c r="Y6" s="76"/>
       <c r="Z6" s="76"/>
-      <c r="AA6" s="75"/>
+      <c r="AA6" s="76"/>
       <c r="AB6" s="76"/>
-      <c r="AC6" s="75"/>
+      <c r="AC6" s="76"/>
       <c r="AD6" s="76"/>
-      <c r="AE6" s="75"/>
+      <c r="AE6" s="76"/>
       <c r="AF6" s="76"/>
-      <c r="AG6" s="75"/>
+      <c r="AG6" s="76"/>
       <c r="AH6" s="76"/>
-      <c r="AI6" s="5" t="str" cm="1">
-        <f t="array" ref="AI6">IFERROR(SUM(_xlfn._xlws.FILTER(C6:AH6,ISNUMBER(C6:AH6))),"")</f>
-        <v/>
+      <c r="AI6" s="5">
+        <f t="shared" ref="AI6:AI11" si="1">SUMIFS(C6:AH6,C$4:AH$4,"&lt;&gt;Labour Codes:")</f>
+        <v>0</v>
       </c>
       <c r="AJ6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AK6" s="53" t="str" cm="1">
+      <c r="AK6" s="58" t="str" cm="1">
         <f t="array" ref="AK6">_xlfn.LET(
   _xlpm.f, _xlfn._xlws.FILTER(C5:AH11,(C4:AH4&lt;&gt;"VP")*ISNUMBER(C12:AH12),0),
   _xlpm.s, SUM(_xlpm.f),
@@ -3929,364 +3844,362 @@
 )</f>
         <v/>
       </c>
-      <c r="AL6" s="54"/>
+      <c r="AL6" s="59"/>
     </row>
     <row r="7" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <f t="shared" si="0"/>
         <v>45790</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="75"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="76"/>
       <c r="R7" s="76"/>
-      <c r="S7" s="75"/>
+      <c r="S7" s="76"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="76"/>
-      <c r="W7" s="75"/>
+      <c r="W7" s="76"/>
       <c r="X7" s="76"/>
-      <c r="Y7" s="75"/>
+      <c r="Y7" s="76"/>
       <c r="Z7" s="76"/>
-      <c r="AA7" s="75"/>
+      <c r="AA7" s="76"/>
       <c r="AB7" s="76"/>
-      <c r="AC7" s="75"/>
+      <c r="AC7" s="76"/>
       <c r="AD7" s="76"/>
-      <c r="AE7" s="75"/>
+      <c r="AE7" s="76"/>
       <c r="AF7" s="76"/>
-      <c r="AG7" s="75"/>
+      <c r="AG7" s="76"/>
       <c r="AH7" s="76"/>
-      <c r="AI7" s="5" t="str" cm="1">
-        <f t="array" ref="AI7">IFERROR(SUM(_xlfn._xlws.FILTER(C7:AH7,ISNUMBER(C7:AH7))),"")</f>
-        <v/>
+      <c r="AI7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AK7" s="53">
+      <c r="AK7" s="58">
         <f>SUM(W16:X22)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="54"/>
+      <c r="AL7" s="59"/>
     </row>
     <row r="8" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <f t="shared" si="0"/>
         <v>45791</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="75"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="76"/>
       <c r="R8" s="76"/>
-      <c r="S8" s="75"/>
+      <c r="S8" s="76"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="76"/>
-      <c r="W8" s="75"/>
+      <c r="W8" s="76"/>
       <c r="X8" s="76"/>
-      <c r="Y8" s="75"/>
+      <c r="Y8" s="76"/>
       <c r="Z8" s="76"/>
-      <c r="AA8" s="75"/>
+      <c r="AA8" s="76"/>
       <c r="AB8" s="76"/>
-      <c r="AC8" s="75"/>
+      <c r="AC8" s="76"/>
       <c r="AD8" s="76"/>
-      <c r="AE8" s="75"/>
+      <c r="AE8" s="76"/>
       <c r="AF8" s="76"/>
-      <c r="AG8" s="75"/>
+      <c r="AG8" s="76"/>
       <c r="AH8" s="76"/>
-      <c r="AI8" s="5" t="str" cm="1">
-        <f t="array" ref="AI8">IFERROR(SUM(_xlfn._xlws.FILTER(C8:AH8,ISNUMBER(C8:AH8))),"")</f>
-        <v/>
+      <c r="AI8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AK8" s="53">
+      <c r="AK8" s="58">
         <f>SUM(Y16:Z22)</f>
         <v>0</v>
       </c>
-      <c r="AL8" s="54"/>
+      <c r="AL8" s="59"/>
     </row>
     <row r="9" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <f t="shared" si="0"/>
         <v>45792</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="75"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="76"/>
       <c r="R9" s="76"/>
-      <c r="S9" s="75"/>
+      <c r="S9" s="76"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="76"/>
-      <c r="W9" s="75"/>
+      <c r="W9" s="76"/>
       <c r="X9" s="76"/>
-      <c r="Y9" s="75"/>
+      <c r="Y9" s="76"/>
       <c r="Z9" s="76"/>
-      <c r="AA9" s="75"/>
+      <c r="AA9" s="76"/>
       <c r="AB9" s="76"/>
-      <c r="AC9" s="75"/>
+      <c r="AC9" s="76"/>
       <c r="AD9" s="76"/>
-      <c r="AE9" s="75"/>
+      <c r="AE9" s="76"/>
       <c r="AF9" s="76"/>
-      <c r="AG9" s="75"/>
+      <c r="AG9" s="76"/>
       <c r="AH9" s="76"/>
-      <c r="AI9" s="5" t="str" cm="1">
-        <f t="array" ref="AI9">IFERROR(SUM(_xlfn._xlws.FILTER(C9:AH9,ISNUMBER(C9:AH9))),"")</f>
-        <v/>
+      <c r="AI9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AK9" s="36" t="str" cm="1">
+      <c r="AK9" s="39" t="str" cm="1">
         <f t="array" ref="AK9">IF(SUMPRODUCT((C4:AH4="VP")*ISNUMBER(C12:AH12)*C5:AH11)=0,"",
    SUMPRODUCT((C4:AH4="VP")*ISNUMBER(C12:AH12)*C5:AH11))</f>
         <v/>
       </c>
-      <c r="AL9" s="37"/>
+      <c r="AL9" s="40"/>
     </row>
     <row r="10" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <f t="shared" si="0"/>
         <v>45793</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="75"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="76"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="76"/>
-      <c r="W10" s="75"/>
+      <c r="W10" s="76"/>
       <c r="X10" s="76"/>
-      <c r="Y10" s="75"/>
+      <c r="Y10" s="76"/>
       <c r="Z10" s="76"/>
-      <c r="AA10" s="75"/>
+      <c r="AA10" s="76"/>
       <c r="AB10" s="76"/>
-      <c r="AC10" s="75"/>
+      <c r="AC10" s="76"/>
       <c r="AD10" s="76"/>
-      <c r="AE10" s="75"/>
+      <c r="AE10" s="76"/>
       <c r="AF10" s="76"/>
-      <c r="AG10" s="75"/>
+      <c r="AG10" s="76"/>
       <c r="AH10" s="76"/>
-      <c r="AI10" s="5" t="str" cm="1">
-        <f t="array" ref="AI10">IFERROR(SUM(_xlfn._xlws.FILTER(C10:AH10,ISNUMBER(C10:AH10))),"")</f>
-        <v/>
+      <c r="AI10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AK10" s="53">
+      <c r="AK10" s="58">
         <f>AI13</f>
         <v>0</v>
       </c>
-      <c r="AL10" s="55"/>
+      <c r="AL10" s="60"/>
     </row>
     <row r="11" spans="1:40" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <f t="shared" si="0"/>
         <v>45794</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="23" t="str" cm="1">
-        <f t="array" ref="AI11">IFERROR(SUM(_xlfn._xlws.FILTER(C11:AH11,ISNUMBER(C11:AH11))),"")</f>
-        <v/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AK11" s="56" t="str" cm="1">
+      <c r="AK11" s="63" t="str" cm="1">
         <f t="array" ref="AK11">_xlfn.LET(
-    _xlpm.codes, C4:AH4,
-    _xlpm.hours, C5:AH11,
-    _xlpm.statHours, SUMPRODUCT((ISNUMBER(SEARCH("H",_xlpm.codes))+ISNUMBER(SEARCH("STAT",_xlpm.codes))&gt;0)*_xlpm.hours),
-    IF(_xlpm.statHours=0,"",_xlpm.statHours)
+    _xlpm.vals, IFERROR(_xlfn._xlws.FILTER(C5:AH11, C4:AH4="H"), 0),
+    IF(SUM(_xlpm.vals)=0, "", SUM(_xlpm.vals))
 )</f>
         <v/>
       </c>
-      <c r="AL11" s="57"/>
+      <c r="AL11" s="64"/>
     </row>
     <row r="12" spans="1:40" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59" t="str">
+      <c r="B12" s="65"/>
+      <c r="C12" s="66" t="str">
         <f>IF(OR(LEFT(C4,1)="N",,LEFT(C4,1)="L",C4="Service Night"),"", SUM(C5:D11))</f>
         <v/>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="59" t="str">
-        <f t="shared" ref="E12" si="1">IF(OR(LEFT(E4,1)="N",,LEFT(E4,1)="L",E4="Service Night"),"", SUM(E5:F11))</f>
-        <v/>
-      </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="59" t="str">
-        <f t="shared" ref="G12" si="2">IF(OR(LEFT(G4,1)="N",,LEFT(G4,1)="L",G4="Service Night"),"", SUM(G5:H11))</f>
-        <v/>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="59" t="str">
-        <f t="shared" ref="I12" si="3">IF(OR(LEFT(I4,1)="N",,LEFT(I4,1)="L",I4="Service Night"),"", SUM(I5:J11))</f>
-        <v/>
-      </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="59" t="str">
-        <f t="shared" ref="K12" si="4">IF(OR(LEFT(K4,1)="N",,LEFT(K4,1)="L",K4="Service Night"),"", SUM(K5:L11))</f>
-        <v/>
-      </c>
-      <c r="L12" s="60"/>
-      <c r="M12" s="59" t="str">
-        <f t="shared" ref="M12" si="5">IF(OR(LEFT(M4,1)="N",,LEFT(M4,1)="L",M4="Service Night"),"", SUM(M5:N11))</f>
-        <v/>
-      </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="59" t="str">
-        <f t="shared" ref="O12" si="6">IF(OR(LEFT(O4,1)="N",,LEFT(O4,1)="L",O4="Service Night"),"", SUM(O5:P11))</f>
-        <v/>
-      </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="59" t="str">
-        <f t="shared" ref="Q12" si="7">IF(OR(LEFT(Q4,1)="N",,LEFT(Q4,1)="L",Q4="Service Night"),"", SUM(Q5:R11))</f>
-        <v/>
-      </c>
-      <c r="R12" s="60"/>
-      <c r="S12" s="59" t="str">
-        <f t="shared" ref="S12" si="8">IF(OR(LEFT(S4,1)="N",,LEFT(S4,1)="L",S4="Service Night"),"", SUM(S5:T11))</f>
-        <v/>
-      </c>
-      <c r="T12" s="60"/>
-      <c r="U12" s="59" t="str">
-        <f t="shared" ref="U12" si="9">IF(OR(LEFT(U4,1)="N",,LEFT(U4,1)="L",U4="Service Night"),"", SUM(U5:V11))</f>
-        <v/>
-      </c>
-      <c r="V12" s="60"/>
-      <c r="W12" s="59" t="str">
-        <f t="shared" ref="W12" si="10">IF(OR(LEFT(W4,1)="N",,LEFT(W4,1)="L",W4="Service Night"),"", SUM(W5:X11))</f>
-        <v/>
-      </c>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="59" t="str">
-        <f t="shared" ref="Y12" si="11">IF(OR(LEFT(Y4,1)="N",,LEFT(Y4,1)="L",Y4="Service Night"),"", SUM(Y5:Z11))</f>
-        <v/>
-      </c>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="59" t="str">
-        <f t="shared" ref="AA12" si="12">IF(OR(LEFT(AA4,1)="N",,LEFT(AA4,1)="L",AA4="Service Night"),"", SUM(AA5:AB11))</f>
-        <v/>
-      </c>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="59" t="str">
-        <f t="shared" ref="AC12" si="13">IF(OR(LEFT(AC4,1)="N",,LEFT(AC4,1)="L",AC4="Service Night"),"", SUM(AC5:AD11))</f>
-        <v/>
-      </c>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="59" t="str">
-        <f t="shared" ref="AE12" si="14">IF(OR(LEFT(AE4,1)="N",,LEFT(AE4,1)="L",AE4="Service Night"),"", SUM(AE5:AF11))</f>
-        <v/>
-      </c>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="59" t="str">
-        <f t="shared" ref="AG12" si="15">IF(OR(LEFT(AG4,1)="N",,LEFT(AG4,1)="L",AG4="Service Night"),"", SUM(AG5:AH11))</f>
-        <v/>
-      </c>
-      <c r="AH12" s="60"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="66" t="str">
+        <f t="shared" ref="E12" si="2">IF(OR(LEFT(E4,1)="N",,LEFT(E4,1)="L",E4="Service Night"),"", SUM(E5:F11))</f>
+        <v/>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66" t="str">
+        <f t="shared" ref="G12" si="3">IF(OR(LEFT(G4,1)="N",,LEFT(G4,1)="L",G4="Service Night"),"", SUM(G5:H11))</f>
+        <v/>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="66" t="str">
+        <f t="shared" ref="I12" si="4">IF(OR(LEFT(I4,1)="N",,LEFT(I4,1)="L",I4="Service Night"),"", SUM(I5:J11))</f>
+        <v/>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="66" t="str">
+        <f t="shared" ref="K12" si="5">IF(OR(LEFT(K4,1)="N",,LEFT(K4,1)="L",K4="Service Night"),"", SUM(K5:L11))</f>
+        <v/>
+      </c>
+      <c r="L12" s="67"/>
+      <c r="M12" s="66" t="str">
+        <f t="shared" ref="M12" si="6">IF(OR(LEFT(M4,1)="N",,LEFT(M4,1)="L",M4="Service Night"),"", SUM(M5:N11))</f>
+        <v/>
+      </c>
+      <c r="N12" s="67"/>
+      <c r="O12" s="66" t="str">
+        <f t="shared" ref="O12" si="7">IF(OR(LEFT(O4,1)="N",,LEFT(O4,1)="L",O4="Service Night"),"", SUM(O5:P11))</f>
+        <v/>
+      </c>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="66" t="str">
+        <f t="shared" ref="Q12" si="8">IF(OR(LEFT(Q4,1)="N",,LEFT(Q4,1)="L",Q4="Service Night"),"", SUM(Q5:R11))</f>
+        <v/>
+      </c>
+      <c r="R12" s="67"/>
+      <c r="S12" s="66" t="str">
+        <f t="shared" ref="S12" si="9">IF(OR(LEFT(S4,1)="N",,LEFT(S4,1)="L",S4="Service Night"),"", SUM(S5:T11))</f>
+        <v/>
+      </c>
+      <c r="T12" s="67"/>
+      <c r="U12" s="66" t="str">
+        <f t="shared" ref="U12" si="10">IF(OR(LEFT(U4,1)="N",,LEFT(U4,1)="L",U4="Service Night"),"", SUM(U5:V11))</f>
+        <v/>
+      </c>
+      <c r="V12" s="67"/>
+      <c r="W12" s="66" t="str">
+        <f t="shared" ref="W12" si="11">IF(OR(LEFT(W4,1)="N",,LEFT(W4,1)="L",W4="Service Night"),"", SUM(W5:X11))</f>
+        <v/>
+      </c>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="66" t="str">
+        <f t="shared" ref="Y12" si="12">IF(OR(LEFT(Y4,1)="N",,LEFT(Y4,1)="L",Y4="Service Night"),"", SUM(Y5:Z11))</f>
+        <v/>
+      </c>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="66" t="str">
+        <f t="shared" ref="AA12" si="13">IF(OR(LEFT(AA4,1)="N",,LEFT(AA4,1)="L",AA4="Service Night"),"", SUM(AA5:AB11))</f>
+        <v/>
+      </c>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="66" t="str">
+        <f t="shared" ref="AC12" si="14">IF(OR(LEFT(AC4,1)="N",,LEFT(AC4,1)="L",AC4="Service Night"),"", SUM(AC5:AD11))</f>
+        <v/>
+      </c>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="66" t="str">
+        <f t="shared" ref="AE12" si="15">IF(OR(LEFT(AE4,1)="N",,LEFT(AE4,1)="L",AE4="Service Night"),"", SUM(AE5:AF11))</f>
+        <v/>
+      </c>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="66" t="str">
+        <f t="shared" ref="AG12" si="16">IF(OR(LEFT(AG4,1)="N",,LEFT(AG4,1)="L",AG4="Service Night"),"", SUM(AG5:AH11))</f>
+        <v/>
+      </c>
+      <c r="AH12" s="67"/>
       <c r="AI12" s="15" t="str" cm="1">
         <f t="array" ref="AI12">IFERROR(
   SUM( _xlfn._xlws.FILTER( C5:AH11, (C4:AH4&lt;&gt;"VP") * ISNUMBER(C12:AH12) ) ),
@@ -4297,97 +4210,97 @@
       <c r="AJ12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK12" s="61" t="str">
+      <c r="AK12" s="68" t="str">
         <f>IF(OR(C15="On Call",E15="On Call",G15="On Call",I15="On Call",K15="On Call",M15="On Call",O15="On Call",Q15="On Call",S15="On Call",U15="On Call"), 300, IF(0=0,"",0))</f>
         <v/>
       </c>
-      <c r="AL12" s="62"/>
+      <c r="AL12" s="69"/>
     </row>
     <row r="13" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64" t="str">
+      <c r="B13" s="70"/>
+      <c r="C13" s="71" t="str">
         <f>IF(OR(LEFT(C4,1)="N",C4="Service Night"), SUM(C5:D11),"")</f>
         <v/>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="64" t="str">
-        <f t="shared" ref="E13" si="16">IF(OR(LEFT(E4,1)="N",E4="Service Night"), SUM(E5:F11),"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="64" t="str">
-        <f t="shared" ref="G13" si="17">IF(OR(LEFT(G4,1)="N",G4="Service Night"), SUM(G5:H11),"")</f>
-        <v/>
-      </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="64" t="str">
-        <f t="shared" ref="I13" si="18">IF(OR(LEFT(I4,1)="N",I4="Service Night"), SUM(I5:J11),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64" t="str">
-        <f t="shared" ref="K13" si="19">IF(OR(LEFT(K4,1)="N",K4="Service Night"), SUM(K5:L11),"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64" t="str">
-        <f t="shared" ref="M13" si="20">IF(OR(LEFT(M4,1)="N",M4="Service Night"), SUM(M5:N11),"")</f>
-        <v/>
-      </c>
-      <c r="N13" s="65"/>
-      <c r="O13" s="64" t="str">
-        <f t="shared" ref="O13" si="21">IF(OR(LEFT(O4,1)="N",O4="Service Night"), SUM(O5:P11),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="64" t="str">
-        <f t="shared" ref="Q13" si="22">IF(OR(LEFT(Q4,1)="N",Q4="Service Night"), SUM(Q5:R11),"")</f>
-        <v/>
-      </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64" t="str">
-        <f t="shared" ref="S13" si="23">IF(OR(LEFT(S4,1)="N",S4="Service Night"), SUM(S5:T11),"")</f>
-        <v/>
-      </c>
-      <c r="T13" s="65"/>
-      <c r="U13" s="64" t="str">
-        <f t="shared" ref="U13" si="24">IF(OR(LEFT(U4,1)="N",U4="Service Night"), SUM(U5:V11),"")</f>
-        <v/>
-      </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="64" t="str">
-        <f t="shared" ref="W13" si="25">IF(OR(LEFT(W4,1)="N",W4="Service Night"), SUM(W5:X11),"")</f>
-        <v/>
-      </c>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="64" t="str">
-        <f t="shared" ref="Y13" si="26">IF(OR(LEFT(Y4,1)="N",Y4="Service Night"), SUM(Y5:Z11),"")</f>
-        <v/>
-      </c>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="64" t="str">
-        <f t="shared" ref="AA13" si="27">IF(OR(LEFT(AA4,1)="N",AA4="Service Night"), SUM(AA5:AB11),"")</f>
-        <v/>
-      </c>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="64" t="str">
-        <f t="shared" ref="AC13" si="28">IF(OR(LEFT(AC4,1)="N",AC4="Service Night"), SUM(AC5:AD11),"")</f>
-        <v/>
-      </c>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="64" t="str">
-        <f t="shared" ref="AE13" si="29">IF(OR(LEFT(AE4,1)="N",AE4="Service Night"), SUM(AE5:AF11),"")</f>
-        <v/>
-      </c>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="64" t="str">
-        <f t="shared" ref="AG13" si="30">IF(OR(LEFT(AG4,1)="N",AG4="Service Night"), SUM(AG5:AH11),"")</f>
-        <v/>
-      </c>
-      <c r="AH13" s="65"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="71" t="str">
+        <f t="shared" ref="E13" si="17">IF(OR(LEFT(E4,1)="N",E4="Service Night"), SUM(E5:F11),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="71" t="str">
+        <f t="shared" ref="G13" si="18">IF(OR(LEFT(G4,1)="N",G4="Service Night"), SUM(G5:H11),"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="72"/>
+      <c r="I13" s="71" t="str">
+        <f t="shared" ref="I13" si="19">IF(OR(LEFT(I4,1)="N",I4="Service Night"), SUM(I5:J11),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="72"/>
+      <c r="K13" s="71" t="str">
+        <f t="shared" ref="K13" si="20">IF(OR(LEFT(K4,1)="N",K4="Service Night"), SUM(K5:L11),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="71" t="str">
+        <f t="shared" ref="M13" si="21">IF(OR(LEFT(M4,1)="N",M4="Service Night"), SUM(M5:N11),"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="71" t="str">
+        <f t="shared" ref="O13" si="22">IF(OR(LEFT(O4,1)="N",O4="Service Night"), SUM(O5:P11),"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="71" t="str">
+        <f t="shared" ref="Q13" si="23">IF(OR(LEFT(Q4,1)="N",Q4="Service Night"), SUM(Q5:R11),"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="72"/>
+      <c r="S13" s="71" t="str">
+        <f t="shared" ref="S13" si="24">IF(OR(LEFT(S4,1)="N",S4="Service Night"), SUM(S5:T11),"")</f>
+        <v/>
+      </c>
+      <c r="T13" s="72"/>
+      <c r="U13" s="71" t="str">
+        <f t="shared" ref="U13" si="25">IF(OR(LEFT(U4,1)="N",U4="Service Night"), SUM(U5:V11),"")</f>
+        <v/>
+      </c>
+      <c r="V13" s="72"/>
+      <c r="W13" s="71" t="str">
+        <f t="shared" ref="W13" si="26">IF(OR(LEFT(W4,1)="N",W4="Service Night"), SUM(W5:X11),"")</f>
+        <v/>
+      </c>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="71" t="str">
+        <f t="shared" ref="Y13" si="27">IF(OR(LEFT(Y4,1)="N",Y4="Service Night"), SUM(Y5:Z11),"")</f>
+        <v/>
+      </c>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="71" t="str">
+        <f t="shared" ref="AA13" si="28">IF(OR(LEFT(AA4,1)="N",AA4="Service Night"), SUM(AA5:AB11),"")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="71" t="str">
+        <f t="shared" ref="AC13" si="29">IF(OR(LEFT(AC4,1)="N",AC4="Service Night"), SUM(AC5:AD11),"")</f>
+        <v/>
+      </c>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="71" t="str">
+        <f t="shared" ref="AE13" si="30">IF(OR(LEFT(AE4,1)="N",AE4="Service Night"), SUM(AE5:AF11),"")</f>
+        <v/>
+      </c>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="71" t="str">
+        <f t="shared" ref="AG13" si="31">IF(OR(LEFT(AG4,1)="N",AG4="Service Night"), SUM(AG5:AH11),"")</f>
+        <v/>
+      </c>
+      <c r="AH13" s="72"/>
       <c r="AI13" s="16">
         <f>SUM(C13:AH13)</f>
         <v>0</v>
@@ -4395,11 +4308,11 @@
       <c r="AJ13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AK13" s="61" t="str" cm="1">
+      <c r="AK13" s="68" t="str" cm="1">
         <f t="array" ref="AK13">IF(COUNT(_xlfn._xlws.FILTER(C15:V22,C15:V15="On Call"))*50=0,"",COUNT(_xlfn._xlws.FILTER(C15:V22,C15:V15="On Call"))*50)</f>
         <v/>
       </c>
-      <c r="AL13" s="62"/>
+      <c r="AL13" s="69"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
@@ -4412,140 +4325,140 @@
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="27">
         <f>B4</f>
         <v>45788</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="35" t="s">
+      <c r="P15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="34" t="s">
+      <c r="Q15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="35" t="s">
+      <c r="R15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="S15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U15" s="34" t="s">
+      <c r="U15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="35" t="s">
+      <c r="V15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W15" s="66" t="s">
+      <c r="W15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="66" t="s">
+      <c r="X15" s="74"/>
+      <c r="Y15" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Z15" s="67"/>
+      <c r="Z15" s="74"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="68" t="s">
+      <c r="AB15" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
     </row>
     <row r="16" spans="1:40" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="22">
-        <f t="shared" ref="B16:B22" si="31">B5</f>
+        <f t="shared" ref="B16:B22" si="32">B5</f>
         <v>45788</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="70" cm="1">
-        <f t="array" ref="W16">MIN(IFERROR(SUM(_xlfn._xlws.FILTER(C16:V16,ISNUMBER(C16:V16))),0), 4)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="72">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="77">
+        <f>IF(SUM(AI5)=0, MIN(SUMIFS(C16:V16, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 12), MIN(SUMIFS(C16:V16, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 4))</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="79">
         <f>SUMIFS(C16:V16,C$15:V$15,"&lt;&gt;Labour Codes:")-W16</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="73"/>
-      <c r="AB16" s="74" t="s">
+      <c r="Z16" s="80"/>
+      <c r="AB16" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="81"/>
       <c r="AN16" s="2"/>
     </row>
     <row r="17" spans="1:40" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4553,451 +4466,451 @@
         <v>9</v>
       </c>
       <c r="B17" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>45789</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="70" cm="1">
-        <f t="array" ref="W17">MIN(IFERROR(SUM(_xlfn._xlws.FILTER(C17:V17,ISNUMBER(C17:V17))),0), 4)</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="72">
-        <f t="shared" ref="Y17:Y22" si="32">SUMIFS(C17:V17,C$15:V$15,"&lt;&gt;Labour Codes:")-W17</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="73"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
-      <c r="AJ17" s="50" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="77">
+        <f t="shared" ref="W17:W22" si="33">IF(SUM(AI6)=0, MIN(SUMIFS(C17:V17, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 12), MIN(SUMIFS(C17:V17, $C$15:$V$15, "&lt;&gt;Labour Codes:"), 4))</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="79">
+        <f t="shared" ref="Y17:Y22" si="34">SUMIFS(C17:V17,C$15:V$15,"&lt;&gt;Labour Codes:")-W17</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="80"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AJ17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="52"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="57"/>
     </row>
     <row r="18" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>45790</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="70" cm="1">
-        <f t="array" ref="W18">MIN(IFERROR(SUM(_xlfn._xlws.FILTER(C18:V18,ISNUMBER(C18:V18))),0), 4)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="72">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="73"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="77">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="79">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="80"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
       <c r="AJ18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AK18" s="53" cm="1">
+      <c r="AK18" s="58" cm="1">
         <f t="array" ref="AK18">IFERROR(SUM(
     IF(ISNUMBER('Week 1'!AK6:AL6),'Week 1'!AK6:AL6,0),
     IF(ISNUMBER('Week 2'!AK6),'Week 2'!AK6,0)
 ),"")</f>
         <v>0</v>
       </c>
-      <c r="AL18" s="54"/>
+      <c r="AL18" s="59"/>
     </row>
     <row r="19" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>45791</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="70" cm="1">
-        <f t="array" ref="W19">MIN(IFERROR(SUM(_xlfn._xlws.FILTER(C19:V19,ISNUMBER(C19:V19))),0), 4)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="72">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="73"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="77">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="79">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="80"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
       <c r="AJ19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AK19" s="53">
+      <c r="AK19" s="58">
         <f>'Week 1'!AK7:AL7+AK7</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="54"/>
+      <c r="AL19" s="59"/>
     </row>
     <row r="20" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>45792</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="70" cm="1">
-        <f t="array" ref="W20">MIN(IFERROR(SUM(_xlfn._xlws.FILTER(C20:V20,ISNUMBER(C20:V20))),0), 4)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="72">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="73"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="74"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="77">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="79">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="80"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
       <c r="AJ20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AK20" s="53">
+      <c r="AK20" s="58">
         <f>'Week 1'!AK8:AL8+AK8</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="54"/>
+      <c r="AL20" s="59"/>
     </row>
     <row r="21" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>45793</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="70" cm="1">
-        <f t="array" ref="W21">MIN(IFERROR(SUM(_xlfn._xlws.FILTER(C21:V21,ISNUMBER(C21:V21))),0), 4)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="72">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="73"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="77">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="79">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="80"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
       <c r="AJ21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AK21" s="36" t="str">
+      <c r="AK21" s="39" t="str">
         <f>IF(SUM('Week 1'!AK9,'Week 2'!AK9)=0,"",SUM('Week 1'!AK9,'Week 2'!AK9))</f>
         <v/>
       </c>
-      <c r="AL21" s="37"/>
-      <c r="AN21" s="30"/>
+      <c r="AL21" s="40"/>
+      <c r="AN21" s="33"/>
     </row>
     <row r="22" spans="1:40" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>45794</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="70" cm="1">
-        <f t="array" ref="W22">MIN(IFERROR(SUM(_xlfn._xlws.FILTER(C22:V22,ISNUMBER(C22:V22))),0), 4)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="72">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="73"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="77">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="80"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
       <c r="AJ22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AK22" s="53">
+      <c r="AK22" s="58">
         <f>'Week 1'!AK10:AL10+AK10</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="29"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="32"/>
     </row>
     <row r="23" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="83" t="str">
+      <c r="B23" s="92"/>
+      <c r="C23" s="86" t="str">
         <f>IF(AND(LEFT(C15,1) &lt;&gt; "N",LEFT(C15,3) &lt;&gt; "Lab"),SUM(C16:D22),"")</f>
         <v/>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="83" t="str">
+      <c r="D23" s="87"/>
+      <c r="E23" s="86" t="str">
         <f>IF(AND(LEFT(E15,1) &lt;&gt; "N",LEFT(E15,3) &lt;&gt; "Lab"),SUM(E16:F22),"")</f>
         <v/>
       </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="83" t="str">
+      <c r="F23" s="87"/>
+      <c r="G23" s="86" t="str">
         <f>IF(AND(LEFT(G15,1) &lt;&gt; "N",LEFT(G15,3) &lt;&gt; "Lab"),SUM(G16:H22),"")</f>
         <v/>
       </c>
-      <c r="H23" s="84"/>
-      <c r="I23" s="83" t="str">
+      <c r="H23" s="87"/>
+      <c r="I23" s="86" t="str">
         <f>IF(AND(LEFT(I15,1) &lt;&gt; "N",LEFT(I15,3) &lt;&gt; "Lab"),SUM(I16:J22),"")</f>
         <v/>
       </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="83" t="str">
+      <c r="J23" s="87"/>
+      <c r="K23" s="86" t="str">
         <f>IF(AND(LEFT(K15,1) &lt;&gt; "N",LEFT(K15,3) &lt;&gt; "Lab"),SUM(K16:L22),"")</f>
         <v/>
       </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="83" t="str">
+      <c r="L23" s="87"/>
+      <c r="M23" s="86" t="str">
         <f>IF(AND(LEFT(M15,1) &lt;&gt; "N",LEFT(M15,3) &lt;&gt; "Lab"),SUM(M16:N22),"")</f>
         <v/>
       </c>
-      <c r="N23" s="84"/>
-      <c r="O23" s="83" t="str">
+      <c r="N23" s="87"/>
+      <c r="O23" s="86" t="str">
         <f>IF(AND(LEFT(O15,1) &lt;&gt; "N",LEFT(O15,3) &lt;&gt; "Lab"),SUM(O16:P22),"")</f>
         <v/>
       </c>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="83" t="str">
+      <c r="P23" s="87"/>
+      <c r="Q23" s="86" t="str">
         <f>IF(AND(LEFT(Q15,1) &lt;&gt; "N",LEFT(Q15,3) &lt;&gt; "Lab"),SUM(Q16:R22),"")</f>
         <v/>
       </c>
-      <c r="R23" s="84"/>
-      <c r="S23" s="83" t="str">
+      <c r="R23" s="87"/>
+      <c r="S23" s="86" t="str">
         <f>IF(AND(LEFT(S15,1) &lt;&gt; "N",LEFT(S15,3) &lt;&gt; "Lab"),SUM(S16:T22),"")</f>
         <v/>
       </c>
-      <c r="T23" s="84"/>
-      <c r="U23" s="83" t="str">
+      <c r="T23" s="87"/>
+      <c r="U23" s="86" t="str">
         <f>IF(AND(LEFT(U15,1) &lt;&gt; "N",LEFT(U15,3) &lt;&gt; "Lab"),SUM(U16:V22),"")</f>
         <v/>
       </c>
-      <c r="V23" s="84"/>
-      <c r="W23" s="81">
+      <c r="V23" s="87"/>
+      <c r="W23" s="84">
         <f>SUM(W16:X22)</f>
         <v>0</v>
       </c>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="81">
+      <c r="X23" s="85"/>
+      <c r="Y23" s="84">
         <f>SUM(Y16:Z22)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="82"/>
+      <c r="Z23" s="85"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="30"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81"/>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="33"/>
       <c r="AJ23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AK23" s="90" t="str">
+      <c r="AK23" s="93" t="str">
         <f>IF(SUM('Week 1'!AK11:AL11, AK11)=0, "", SUM('Week 1'!AK11:AL11, AK11))</f>
         <v/>
       </c>
-      <c r="AL23" s="91"/>
-      <c r="AM23" s="27"/>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="30"/>
     </row>
     <row r="24" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="88"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="91"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
       <c r="AJ24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AK24" s="98" t="str">
+      <c r="AK24" s="102" t="str">
         <f>IFERROR(
   IF(
     IF('Week 1'!AK12="",0,'Week 1'!AK12) + IF(AK12="",0,AK12)=0,
@@ -5008,49 +4921,49 @@
 )</f>
         <v/>
       </c>
-      <c r="AL24" s="99"/>
+      <c r="AL24" s="103"/>
     </row>
     <row r="25" spans="1:40" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="81"/>
+      <c r="AH25" s="81"/>
       <c r="AJ25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AK25" s="96" t="str">
+      <c r="AK25" s="100" t="str">
         <f>IFERROR(
   IF(
     IF('Week 1'!AK13="",0,'Week 1'!AK13) + IF(AK13="",0,AK13)=0,
@@ -5061,201 +4974,201 @@
 )</f>
         <v/>
       </c>
-      <c r="AL25" s="97"/>
+      <c r="AL25" s="101"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+      <c r="AH26" s="81"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="74"/>
-      <c r="AH27" s="74"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="81"/>
     </row>
     <row r="28" spans="1:40" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80" t="s">
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="80"/>
-      <c r="AE28" s="80"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="80"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="80"/>
-      <c r="AL28" s="80"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="83"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="83"/>
+      <c r="AJ28" s="83"/>
+      <c r="AK28" s="83"/>
+      <c r="AL28" s="83"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="80"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="80"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="80"/>
-      <c r="Z30" s="80"/>
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="28"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="31"/>
     </row>
     <row r="31" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
@@ -5265,121 +5178,9 @@
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eoNp9Jd/afHRrEqe0UOmj9ynZdp56l8sDebcNAfax/k5x1EACr61OIs+Hwjn/ip0PUhdHAYelItA35UI6MpfVA==" saltValue="oB9eXRXUpPT97Wo6CTWCFw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="291">
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A30:AA30"/>
     <mergeCell ref="AK25:AL25"/>
     <mergeCell ref="W24:X24"/>
@@ -5502,50 +5303,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:Y2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AK12:AL12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
@@ -5559,6 +5316,162 @@
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.12" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
